--- a/Administracion-de-Proyectos/Gestion-de-los-requerimientos/TMv3-BD-Requerimientos.xlsx
+++ b/Administracion-de-Proyectos/Gestion-de-los-requerimientos/TMv3-BD-Requerimientos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="10380" windowHeight="8070" activeTab="2"/>
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="221">
   <si>
     <t>Versión</t>
   </si>
@@ -981,9 +981,6 @@
   </si>
   <si>
     <t>La página  web permite agregar un administrador en el sistema requiriendo los datos (idAdministrador, nombre, a_paterno, a_materno, password, idPrivilegios) solo por el súper administrador.</t>
-  </si>
-  <si>
-    <t>La pagina web proporcionará una cuadricula de líneas horizontales y verticales proporcionará información de cada usuario registrado en el sistema.</t>
   </si>
   <si>
     <t>El sistema permitirá editar solo el campo estatus.</t>
@@ -1070,6 +1067,78 @@
   </si>
   <si>
     <t>BD de Requerimientos</t>
+  </si>
+  <si>
+    <t>La pagina web proporcionará una cuadricula de líneas horizontales y verticales proporcionará información de cada administrador  registrado en el sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nabegador </t>
+  </si>
+  <si>
+    <t>El nagenador optimo para correr la aplicación es google chrome v1.3</t>
+  </si>
+  <si>
+    <t>Version php</t>
+  </si>
+  <si>
+    <t>Motor de base de datos</t>
+  </si>
+  <si>
+    <t>La version de php optima para el sistema es la v 5.</t>
+  </si>
+  <si>
+    <t>El motro de base de datos debera de ser mysql v 5.5</t>
+  </si>
+  <si>
+    <t>Leguaje de base datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El lenguaje para gestionar las bases de datos sera sql </t>
+  </si>
+  <si>
+    <t>Todos los registros como los administradores se mostraran en una sola tabla asi como becas y alumno.</t>
+  </si>
+  <si>
+    <t>Validacion de datos</t>
+  </si>
+  <si>
+    <t>La validacion de los datos en los furmularios de toda la aplicación se hace en cada campo y de forma individual.</t>
+  </si>
+  <si>
+    <t>Encapsulamiento</t>
+  </si>
+  <si>
+    <t>Las variables de las clases seran de tipo private algunas no todas solo las de uso confdencial.</t>
+  </si>
+  <si>
+    <t>En la base de datos se usaran principalmente 3 tipos de datos para almacenar datos las cuales son int, varchar y date.</t>
+  </si>
+  <si>
+    <t>Tipos de datos en BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formato de escritura para variables </t>
+  </si>
+  <si>
+    <t>Formato de escritura para clases</t>
+  </si>
+  <si>
+    <t>Formato de estructura para clases</t>
+  </si>
+  <si>
+    <t>Las variables de la aplicación aran referencia a los campos de las tablas de la base de datos o su acción siempre en minúsculas a excepción de que se requiera unir 2 palabras en una variable se usara la ley de camello.</t>
+  </si>
+  <si>
+    <t>Las clases estarán escritas de acuerdo a lo estipulado en el lenguaje orientados a objetos.</t>
+  </si>
+  <si>
+    <t>La estructura de cada clase será la estipulada en el paradigma  orientados a objetos.</t>
+  </si>
+  <si>
+    <t>Estrucura de visualisacion de registros</t>
+  </si>
+  <si>
+    <t>Usuario final</t>
   </si>
 </sst>
 </file>
@@ -1548,6 +1617,48 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1568,48 +1679,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1986,14 +2055,14 @@
     <row r="5" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="55"/>
+      <c r="A7" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="69"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -2002,7 +2071,7 @@
       <c r="A9" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="63" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="7"/>
@@ -2012,8 +2081,8 @@
       <c r="A10" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>188</v>
+      <c r="B10" s="60" t="s">
+        <v>187</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2022,7 +2091,7 @@
       <c r="A11" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="64">
         <v>42196</v>
       </c>
       <c r="C11" s="7"/>
@@ -2032,8 +2101,8 @@
       <c r="A12" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>189</v>
+      <c r="B12" s="60" t="s">
+        <v>188</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2042,8 +2111,8 @@
       <c r="A13" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="72" t="s">
-        <v>192</v>
+      <c r="B13" s="65" t="s">
+        <v>191</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2052,8 +2121,8 @@
       <c r="A14" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="67" t="s">
-        <v>195</v>
+      <c r="B14" s="60" t="s">
+        <v>194</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2065,10 +2134,10 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="6"/>
@@ -2085,7 +2154,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="12">
         <v>42196</v>
@@ -2112,10 +2181,10 @@
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
@@ -2131,7 +2200,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="12">
         <v>42196</v>
@@ -2158,12 +2227,12 @@
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="53"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="67"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
@@ -2187,10 +2256,10 @@
         <v>42196</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -2261,57 +2330,57 @@
       <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>193</v>
+      <c r="B12" s="60" t="s">
+        <v>192</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>193</v>
+      <c r="B13" s="61" t="s">
+        <v>192</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="69">
+      <c r="B14" s="62">
         <v>42196</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="68" t="s">
-        <v>189</v>
+      <c r="B15" s="61" t="s">
+        <v>188</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="68" t="s">
-        <v>194</v>
+      <c r="B16" s="61" t="s">
+        <v>193</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2324,32 +2393,32 @@
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
     </row>
-    <row r="19" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+    <row r="19" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="54" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="57">
         <v>42196</v>
       </c>
-      <c r="C20" s="66" t="s">
-        <v>189</v>
+      <c r="C20" s="59" t="s">
+        <v>188</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2379,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P737"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2434,11 +2503,11 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="J7" s="2"/>
@@ -2458,24 +2527,24 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="56"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
@@ -2681,7 +2750,7 @@
         <v>112</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>60</v>
@@ -2801,7 +2870,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>60</v>
@@ -2951,7 +3020,7 @@
         <v>157</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>60</v>
@@ -3123,20 +3192,34 @@
       </c>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="42"/>
+      <c r="B31" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>60</v>
+      </c>
       <c r="E31" s="36"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G31" s="33"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="H31" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="J31" s="36"/>
-      <c r="K31" s="32"/>
+      <c r="K31" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="L31" s="33"/>
     </row>
     <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3177,7 +3260,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>59</v>
@@ -3203,16 +3286,30 @@
       <c r="A34" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="42"/>
+      <c r="B34" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="E34" s="36"/>
-      <c r="F34" s="32"/>
+      <c r="F34" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G34" s="33"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="H34" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J34" s="36"/>
-      <c r="K34" s="32"/>
+      <c r="K34" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="L34" s="33"/>
     </row>
     <row r="35" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -3279,16 +3376,30 @@
       <c r="A37" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="42"/>
+      <c r="B37" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="E37" s="36"/>
-      <c r="F37" s="32"/>
+      <c r="F37" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G37" s="33"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
+      <c r="H37" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J37" s="36"/>
-      <c r="K37" s="32"/>
+      <c r="K37" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="L37" s="33"/>
     </row>
     <row r="38" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3355,16 +3466,30 @@
       <c r="A40" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="42"/>
+      <c r="B40" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="E40" s="36"/>
-      <c r="F40" s="32"/>
+      <c r="F40" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G40" s="33"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
+      <c r="H40" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J40" s="36"/>
-      <c r="K40" s="32"/>
+      <c r="K40" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="L40" s="33"/>
     </row>
     <row r="41" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3427,20 +3552,34 @@
       </c>
       <c r="L42" s="33"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="36"/>
+      <c r="B43" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="E43" s="36"/>
-      <c r="F43" s="32"/>
+      <c r="F43" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G43" s="33"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
+      <c r="H43" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="J43" s="36"/>
-      <c r="K43" s="32"/>
+      <c r="K43" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="L43" s="33"/>
     </row>
     <row r="44" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -3503,20 +3642,34 @@
       </c>
       <c r="L45" s="33"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="36"/>
+      <c r="B46" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="E46" s="36"/>
-      <c r="F46" s="32"/>
+      <c r="F46" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G46" s="33"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
+      <c r="H46" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J46" s="36"/>
-      <c r="K46" s="32"/>
+      <c r="K46" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="L46" s="33"/>
     </row>
     <row r="47" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3575,24 +3728,38 @@
       </c>
       <c r="J48" s="36"/>
       <c r="K48" s="32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L48" s="33"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="36"/>
+      <c r="B49" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="E49" s="36"/>
-      <c r="F49" s="32"/>
+      <c r="F49" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G49" s="33"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
+      <c r="H49" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J49" s="36"/>
-      <c r="K49" s="32"/>
+      <c r="K49" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="L49" s="33"/>
     </row>
     <row r="50" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3655,20 +3822,34 @@
       </c>
       <c r="L51" s="33"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="36"/>
+      <c r="B52" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="E52" s="36"/>
-      <c r="F52" s="32"/>
+      <c r="F52" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G52" s="33"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
+      <c r="H52" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J52" s="36"/>
-      <c r="K52" s="32"/>
+      <c r="K52" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="L52" s="33"/>
     </row>
     <row r="53" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3727,24 +3908,38 @@
       </c>
       <c r="J54" s="36"/>
       <c r="K54" s="32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L54" s="33"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="36"/>
+      <c r="B55" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>60</v>
+      </c>
       <c r="E55" s="36"/>
-      <c r="F55" s="32"/>
+      <c r="F55" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G55" s="33"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
+      <c r="H55" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="J55" s="36"/>
-      <c r="K55" s="32"/>
+      <c r="K55" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="L55" s="33"/>
     </row>
     <row r="56" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
@@ -3755,7 +3950,7 @@
         <v>155</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>60</v>
@@ -3807,20 +4002,34 @@
       </c>
       <c r="L57" s="33"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="36"/>
+      <c r="B58" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="E58" s="36"/>
-      <c r="F58" s="32"/>
+      <c r="F58" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
+      <c r="H58" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="J58" s="36"/>
-      <c r="K58" s="32"/>
+      <c r="K58" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="L58" s="33"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -3869,20 +4078,34 @@
       </c>
       <c r="L60" s="33"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="36"/>
+      <c r="B61" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="E61" s="36"/>
-      <c r="F61" s="32"/>
+      <c r="F61" s="32" t="s">
+        <v>27</v>
+      </c>
       <c r="G61" s="33"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
+      <c r="H61" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>31</v>
+      </c>
       <c r="J61" s="36"/>
-      <c r="K61" s="32"/>
+      <c r="K61" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="L61" s="33"/>
     </row>
     <row r="62" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3969,20 +4192,20 @@
         <v>178</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E65" s="36"/>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="32" t="s">
         <v>27</v>
       </c>
       <c r="G65" s="33"/>
-      <c r="H65" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" s="36" t="s">
+      <c r="H65" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" s="32" t="s">
         <v>32</v>
       </c>
       <c r="J65" s="36"/>
@@ -3999,7 +4222,7 @@
         <v>130</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>60</v>
